--- a/data/trans_bre/P32A-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Provincia-trans_bre.xlsx
@@ -660,23 +660,23 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.192472624709717</v>
+        <v>-7.093996935106431</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.01246251690545</v>
+        <v>-14.61539997899938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.308146985295532</v>
+        <v>-6.341059744428258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.163360942629589</v>
+        <v>-4.337278131494315</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.9174852807895375</v>
+        <v>-0.9057440347920441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8860803905713611</v>
+        <v>-0.8830141517983263</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -688,23 +688,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.303697065782289</v>
+        <v>-1.30342873628746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.381021787840685</v>
+        <v>-0.4832302469301424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.115235257052871</v>
+        <v>5.190765849454107</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.1320916756307506</v>
+        <v>0.02801504644040732</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.343781549428758</v>
+        <v>2.60510667585753</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -729,7 +729,7 @@
         <v>-1.374415585647164</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.5447910291014314</v>
+        <v>-0.5447910291014315</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-1</v>
@@ -752,22 +752,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.07223885291824</v>
+        <v>-5.055097941164951</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.200289479655547</v>
+        <v>-3.378123025192547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.678296598586853</v>
+        <v>-3.661569337744564</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.7949727990789</v>
+        <v>-3.14183294089336</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -778,13 +776,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.8876860103074926</v>
+        <v>-0.8958643199336462</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.357270056329169</v>
+        <v>1.379702089822885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.083966707698153</v>
+        <v>2.318865380281157</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>0</v>
@@ -838,16 +836,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.994811279386854</v>
+        <v>-3.079195920086379</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.378418494355149</v>
+        <v>-1.893760560997068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.148197031527939</v>
+        <v>-1.966245531476881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.208351461946105</v>
+        <v>-6.208148078658274</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -873,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4907944240240747</v>
+        <v>-0.1811762949540242</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.3252871060231111</v>
+        <v>0.8433586557030175</v>
       </c>
     </row>
     <row r="13">
@@ -903,7 +901,7 @@
         <v>-0.5429391700255496</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1288082475745576</v>
+        <v>0.1288082475745578</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1436028246986392</v>
@@ -915,7 +913,7 @@
         <v>-1</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.106950932657186</v>
+        <v>0.1069509326571862</v>
       </c>
     </row>
     <row r="14">
@@ -926,23 +924,21 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.649485195559781</v>
+        <v>-1.672926632509177</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.497864435415122</v>
+        <v>-3.112644644012747</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.676744368628753</v>
+        <v>-3.103615534114646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.190825588783567</v>
+        <v>-1.829881727136818</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
-      <c r="J14" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="J14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -952,7 +948,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.141059529167009</v>
+        <v>2.122007419312395</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -961,14 +957,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.895982912843357</v>
+        <v>2.12019878550281</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
-      <c r="J15" s="6" t="n">
-        <v>8.559469005348095</v>
-      </c>
+      <c r="J15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -991,7 +985,7 @@
         <v>-3.133214951341936</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.32873656001445</v>
+        <v>4.328736560014451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-1</v>
@@ -1016,13 +1010,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.051395660132449</v>
+        <v>-5.071339328589019</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.782568414009284</v>
+        <v>-6.525709556927504</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.604839675552</v>
+        <v>-8.670375309457402</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1043,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.539034024690281</v>
+        <v>3.130935051715393</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.01690101691232</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.65955634043678</v>
+        <v>20.21144240837146</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1100,22 +1094,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.447881162326152</v>
+        <v>-4.968719064955797</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.165614847566531</v>
+        <v>-1.154395489310496</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.982041882960719</v>
+        <v>-1.978011342904265</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-3.62362258868685</v>
+        <v>-3.615166499633924</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.9678663929047818</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.33255539272694</v>
+        <v>4.385807950969742</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.986547672920858</v>
+        <v>5.100236263495921</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.429062039022524</v>
+        <v>2.879897479172956</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>2.887829971281487</v>
+        <v>2.340321025625099</v>
       </c>
     </row>
     <row r="22">
@@ -1177,7 +1171,7 @@
         <v>-0.5625431811558721</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.163565149571967</v>
+        <v>1.163565149571966</v>
       </c>
     </row>
     <row r="23">
@@ -1188,26 +1182,26 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.997259583946065</v>
+        <v>-2.160196148937721</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.156643026598496</v>
+        <v>-4.315074064388039</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.824103524758922</v>
+        <v>-4.600181805883284</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5032173091851466</v>
+        <v>-0.1582159404134431</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.9060411361746918</v>
+        <v>-0.8990174133846617</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.230485938196849</v>
+        <v>-0.2540375866074259</v>
       </c>
     </row>
     <row r="24">
@@ -1221,23 +1215,23 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.05226516789142939</v>
+        <v>-0.2383299968829791</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4560285057128837</v>
+        <v>0.5635944614069917</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.464388801244334</v>
+        <v>7.654554989181708</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>2.912871767184237</v>
+        <v>0.93707507704801</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.408566407148698</v>
+        <v>0.3904325340502232</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>4.9666692118281</v>
+        <v>4.645487693810614</v>
       </c>
     </row>
     <row r="25">
@@ -1261,7 +1255,7 @@
         <v>1.15627791442461</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-0.2591718065466165</v>
+        <v>-0.2591718065466167</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6452129127868366</v>
@@ -1273,7 +1267,7 @@
         <v>2.818836664461601</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.2689139078420825</v>
+        <v>-0.2689139078420826</v>
       </c>
     </row>
     <row r="26">
@@ -1284,20 +1278,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.633658456254963</v>
+        <v>-0.6592988796435015</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.454952724910464</v>
+        <v>-3.597032412030872</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.1664310682602059</v>
+        <v>-0.03516723762274596</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.665482282416552</v>
+        <v>-1.6678240459802</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="inlineStr"/>
-      <c r="I26" s="6" t="inlineStr"/>
+      <c r="I26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1308,16 +1304,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.203812723430587</v>
+        <v>2.245244349188848</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.5267884779937797</v>
+        <v>-0.461084308961854</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.331052510188281</v>
+        <v>3.369082726492942</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.124158235386693</v>
+        <v>1.988760334862676</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
@@ -1368,28 +1364,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.323496763425835</v>
+        <v>-1.318899267735396</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.582866014374939</v>
+        <v>-2.629339828007854</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.596154713582082</v>
+        <v>-1.5463826644914</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.7058190524722343</v>
+        <v>-0.7660696692833331</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.8559274991742313</v>
+        <v>-0.8589658741704892</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.666634448822464</v>
+        <v>-0.6598510149449311</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.3411772114750899</v>
+        <v>-0.3699262946160345</v>
       </c>
     </row>
     <row r="30">
@@ -1400,28 +1396,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1129300352295978</v>
+        <v>-0.1442775007574596</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.6089050609537234</v>
+        <v>-0.7478064476939361</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3051019492576221</v>
+        <v>0.247840272896862</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.768912329021334</v>
+        <v>1.7459400786203</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.06748838457661596</v>
+        <v>-0.04053880773864792</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.2676823961487755</v>
+        <v>-0.2918341619036845</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2084299750039198</v>
+        <v>0.2206383833353281</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.218508748106703</v>
+        <v>1.216915229884839</v>
       </c>
     </row>
     <row r="31">
